--- a/1st_round_screening/ACE/iteration_1/data/labeled_1.xlsx
+++ b/1st_round_screening/ACE/iteration_1/data/labeled_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,135 +441,120 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Complexity_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Formulation</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Complexity_STD</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Formulation</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>PDI_STD</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Size_STD</t>
+          <t>Formulation Quality</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>PDI</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Formulation Quality</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Solu</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Solu_STD</t>
         </is>
@@ -580,86 +565,77 @@
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>354</v>
+        <v>0.266</v>
       </c>
       <c r="C2" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.183</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02</v>
+        <v>0.282</v>
       </c>
       <c r="I2" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.093</v>
+        <v>0.19</v>
       </c>
       <c r="K2" t="n">
-        <v>0.225</v>
+        <v>0.079</v>
       </c>
       <c r="L2" t="n">
-        <v>0.046</v>
+        <v>0.516</v>
       </c>
       <c r="M2" t="n">
-        <v>0.225</v>
+        <v>0.31</v>
       </c>
       <c r="N2" t="n">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.741</v>
+        <v>0.174</v>
       </c>
       <c r="P2" t="n">
-        <v>0.049</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Formulation 1</t>
+        </is>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>237.8959895108033</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Formulation 1</t>
-        </is>
+        <v>6.806445517313992</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.3323377058084792</v>
       </c>
       <c r="V2" t="n">
-        <v>237.8959895108033</v>
+        <v>0.04040886060616343</v>
       </c>
       <c r="W2" t="n">
-        <v>6.806445517313992</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3323377058084792</v>
+        <v>532.0000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.04040886060616343</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>270</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,86 +644,77 @@
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>354</v>
+        <v>0.384</v>
       </c>
       <c r="C3" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.243</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.187</v>
+        <v>0.26</v>
       </c>
       <c r="H3" t="n">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.148</v>
+        <v>0.356</v>
       </c>
       <c r="K3" t="n">
-        <v>0.254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.477</v>
       </c>
       <c r="M3" t="n">
-        <v>0.098</v>
+        <v>0.27</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.333</v>
+        <v>0.253</v>
       </c>
       <c r="P3" t="n">
-        <v>0.183</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="n">
-        <v>0.484</v>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Formulation 2</t>
+        </is>
       </c>
       <c r="S3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Formulation 2</t>
-        </is>
+      <c r="U3" t="n">
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -756,86 +723,77 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>354</v>
+        <v>0.207</v>
       </c>
       <c r="C4" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>0.032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.187</v>
+        <v>0.032</v>
       </c>
       <c r="F4" t="n">
-        <v>0.117</v>
+        <v>0.057</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="H4" t="n">
-        <v>0.019</v>
+        <v>0.204</v>
       </c>
       <c r="I4" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.119</v>
+        <v>0.246</v>
       </c>
       <c r="K4" t="n">
-        <v>0.187</v>
+        <v>0.106</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.154</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6830000000000001</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.153</v>
+        <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.124</v>
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Formulation 3</t>
+        </is>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>247.7134993047233</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Formulation 3</t>
-        </is>
+        <v>8.954567739424036</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.3297845913872586</v>
       </c>
       <c r="V4" t="n">
-        <v>247.7134993047233</v>
+        <v>0.03146609637615044</v>
       </c>
       <c r="W4" t="n">
-        <v>8.954567739424036</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3297845913872586</v>
+        <v>414</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03146609637615044</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>374</v>
-      </c>
-      <c r="AB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -844,13 +802,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>354</v>
+        <v>0.356</v>
       </c>
       <c r="C5" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -859,71 +817,62 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.272</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.372</v>
       </c>
       <c r="I5" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.246</v>
+        <v>0.546</v>
       </c>
       <c r="M5" t="n">
-        <v>0.246</v>
+        <v>0.311</v>
       </c>
       <c r="N5" t="n">
-        <v>0.246</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4</v>
+        <v>0.142</v>
       </c>
       <c r="P5" t="n">
-        <v>0.201</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Formulation 4</t>
+        </is>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>Formulation 4</t>
-        </is>
+      <c r="U5" t="n">
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -932,86 +881,77 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>354</v>
+        <v>0.41</v>
       </c>
       <c r="C6" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.242</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.242</v>
+        <v>0.324</v>
       </c>
       <c r="H6" t="n">
-        <v>0.024</v>
+        <v>0.266</v>
       </c>
       <c r="I6" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.242</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.217</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.697</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.434</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="n">
-        <v>0.434</v>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Formulation 5</t>
+        </is>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>Formulation 5</t>
-        </is>
+      <c r="U6" t="n">
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1020,86 +960,77 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>354</v>
+        <v>0.7</v>
       </c>
       <c r="C7" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.224</v>
+        <v>0.3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.134</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="n">
-        <v>0.5</v>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Formulation 6</t>
+        </is>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Formulation 6</t>
-        </is>
+      <c r="U7" t="n">
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1108,37 +1039,37 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>354</v>
+        <v>0.101</v>
       </c>
       <c r="C8" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.124</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.321</v>
+        <v>0.221</v>
       </c>
       <c r="H8" t="n">
-        <v>0.015</v>
+        <v>0.315</v>
       </c>
       <c r="I8" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.225</v>
+        <v>0.362</v>
       </c>
       <c r="K8" t="n">
-        <v>0.296</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1150,44 +1081,35 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.435</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.507</v>
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Formulation 7</t>
+        </is>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Formulation 7</t>
-        </is>
+      <c r="U8" t="n">
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,16 +1118,16 @@
         <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>354</v>
+        <v>0.422</v>
       </c>
       <c r="C9" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.239</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1214,68 +1136,59 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.029</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.239</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.212</v>
+        <v>0.578</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.026</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.239</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.333</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Formulation 8</t>
+        </is>
       </c>
       <c r="S9" t="n">
-        <v>9</v>
+        <v>285.0151017291041</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Formulation 8</t>
-        </is>
+        <v>12.00434196567905</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.315194150578438</v>
       </c>
       <c r="V9" t="n">
-        <v>285.0151017291041</v>
+        <v>0.0712641807659269</v>
       </c>
       <c r="W9" t="n">
-        <v>12.00434196567905</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0.315194150578438</v>
+        <v>844</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0712641807659269</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>478.0000000000001</v>
-      </c>
-      <c r="AB9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,86 +1197,77 @@
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>354</v>
+        <v>0.35</v>
       </c>
       <c r="C10" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.033</v>
+        <v>0.65</v>
       </c>
       <c r="I10" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.209</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.181</v>
+        <v>0.448</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.552</v>
       </c>
       <c r="P10" t="n">
-        <v>0.459</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="n">
-        <v>0.541</v>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Formulation 9</t>
+        </is>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>Formulation 9</t>
-        </is>
+      <c r="U10" t="n">
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1372,86 +1276,77 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>354</v>
+        <v>0.595</v>
       </c>
       <c r="C11" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.242</v>
+        <v>0.048</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.021</v>
+        <v>0.357</v>
       </c>
       <c r="I11" t="n">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.321</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="N11" t="n">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.359</v>
+        <v>0.46</v>
       </c>
       <c r="P11" t="n">
-        <v>0.319</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="n">
-        <v>0.323</v>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Formulation 10</t>
+        </is>
       </c>
       <c r="S11" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Formulation 10</t>
-        </is>
+      <c r="U11" t="n">
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,86 +1355,69 @@
         <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>354</v>
+        <v>0.287</v>
       </c>
       <c r="C12" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.311</v>
+        <v>0.132</v>
       </c>
       <c r="H12" t="n">
-        <v>0.011</v>
+        <v>0.233</v>
       </c>
       <c r="I12" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.163</v>
+        <v>0.287</v>
       </c>
       <c r="K12" t="n">
-        <v>0.311</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
-        <v>0.081</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.191</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.217</v>
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Formulation 11</t>
+        </is>
       </c>
       <c r="S12" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>Formulation 11</t>
-        </is>
+      <c r="U12" t="n">
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1548,86 +1426,77 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>354</v>
+        <v>0.1</v>
       </c>
       <c r="C13" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.144</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.144</v>
+        <v>0.182</v>
       </c>
       <c r="H13" t="n">
-        <v>0.004</v>
+        <v>0.285</v>
       </c>
       <c r="I13" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.124</v>
+        <v>0.168</v>
       </c>
       <c r="K13" t="n">
-        <v>0.144</v>
+        <v>0.179</v>
       </c>
       <c r="L13" t="n">
-        <v>0.144</v>
+        <v>0.777</v>
       </c>
       <c r="M13" t="n">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5</v>
+        <v>0.223</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="n">
-        <v>0.5</v>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Formulation 12</t>
+        </is>
       </c>
       <c r="S13" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>Formulation 12</t>
-        </is>
+      <c r="U13" t="n">
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1636,86 +1505,77 @@
         <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>354</v>
+        <v>0.284</v>
       </c>
       <c r="C14" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.212</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="H14" t="n">
-        <v>0.048</v>
+        <v>0.249</v>
       </c>
       <c r="I14" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.266</v>
+        <v>0.3</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.913</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="n">
-        <v>0.08699999999999999</v>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Formulation 13</t>
+        </is>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Formulation 13</t>
-        </is>
+      <c r="U14" t="n">
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1724,40 +1584,40 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>354</v>
+        <v>0.262</v>
       </c>
       <c r="C15" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.324</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.194</v>
+        <v>0.321</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.324</v>
+        <v>0.417</v>
       </c>
       <c r="K15" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1766,44 +1626,35 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.352</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.352</v>
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Formulation 14</t>
+        </is>
       </c>
       <c r="S15" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Formulation 14</t>
-        </is>
+      <c r="U15" t="n">
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,40 +1663,40 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>354</v>
+        <v>0.49</v>
       </c>
       <c r="C16" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.165</v>
+        <v>0.098</v>
       </c>
       <c r="F16" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.075</v>
+        <v>0.412</v>
       </c>
       <c r="I16" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1854,44 +1705,35 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="n">
-        <v>0.5</v>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Formulation 15</t>
+        </is>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>292.1917196515831</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Formulation 15</t>
-        </is>
+        <v>2.294747218158645</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4057672078599016</v>
       </c>
       <c r="V16" t="n">
-        <v>292.1917196515831</v>
+        <v>0.004598767120424627</v>
       </c>
       <c r="W16" t="n">
-        <v>2.294747218158645</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0.4057672078599016</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.004598767120424627</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1900,16 +1742,16 @@
         <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>354</v>
+        <v>0.631</v>
       </c>
       <c r="C17" t="n">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1918,68 +1760,59 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.112</v>
+        <v>0.369</v>
       </c>
       <c r="K17" t="n">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.152</v>
+        <v>0.422</v>
       </c>
       <c r="M17" t="n">
-        <v>0.263</v>
+        <v>0.232</v>
       </c>
       <c r="N17" t="n">
-        <v>0.263</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.972</v>
+        <v>0.346</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Formulation 16</t>
+        </is>
       </c>
       <c r="S17" t="n">
-        <v>9</v>
+        <v>185.153747022675</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>Formulation 16</t>
-        </is>
+        <v>6.539202338132504</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4054286734833791</v>
       </c>
       <c r="V17" t="n">
-        <v>185.153747022675</v>
+        <v>0.005456004476100109</v>
       </c>
       <c r="W17" t="n">
-        <v>6.539202338132504</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0.4054286734833791</v>
+        <v>1262</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.005456004476100109</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>86</v>
-      </c>
-      <c r="AB17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/1st_round_screening/ACE/iteration_1/data/labeled_1.xlsx
+++ b/1st_round_screening/ACE/iteration_1/data/labeled_1.xlsx
@@ -565,49 +565,49 @@
         <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>0.122</v>
+        <v>0.239</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.186</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.206</v>
       </c>
       <c r="G2" t="n">
-        <v>0.183</v>
+        <v>0.14</v>
       </c>
       <c r="H2" t="n">
-        <v>0.229</v>
+        <v>0.242</v>
       </c>
       <c r="I2" t="n">
-        <v>0.171</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.11</v>
+        <v>0.031</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.285</v>
+        <v>0.603</v>
       </c>
       <c r="M2" t="n">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.177</v>
+        <v>0.397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>290.3787305891885</v>
+        <v>1000</v>
       </c>
       <c r="T2" t="n">
-        <v>8.879463315065955</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2486970869715186</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.04073473232868624</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -644,13 +644,13 @@
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>0.147</v>
+        <v>0.347</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.191</v>
+        <v>0.386</v>
       </c>
       <c r="H3" t="n">
-        <v>0.232</v>
+        <v>0.267</v>
       </c>
       <c r="I3" t="n">
-        <v>0.191</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.366</v>
+        <v>0.242</v>
       </c>
       <c r="M3" t="n">
-        <v>0.634</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.317</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>302.4114910917595</v>
+        <v>1000</v>
       </c>
       <c r="T3" t="n">
-        <v>13.64531014451545</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2452592618687955</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.01909084774318695</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -723,28 +723,28 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>0.18</v>
+        <v>0.282</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.252</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="G4" t="n">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.18</v>
+        <v>0.303</v>
       </c>
       <c r="I4" t="n">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.763</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.237</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -802,28 +802,28 @@
         <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.141</v>
+        <v>0.245</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.141</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.157</v>
       </c>
       <c r="G5" t="n">
-        <v>0.237</v>
+        <v>0.261</v>
       </c>
       <c r="H5" t="n">
-        <v>0.33</v>
+        <v>0.214</v>
       </c>
       <c r="I5" t="n">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -835,16 +835,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -881,28 +881,28 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.205</v>
+        <v>0.324</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.281</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.155</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="G6" t="n">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.178</v>
+        <v>0.321</v>
       </c>
       <c r="I6" t="n">
-        <v>0.147</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -914,16 +914,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>294.7683511105966</v>
+        <v>1000</v>
       </c>
       <c r="T6" t="n">
-        <v>9.271563623725608</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.251448854314015</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0.05120756168334623</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>409.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>0.212</v>
+        <v>0.285</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -969,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.191</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.268</v>
       </c>
       <c r="G7" t="n">
-        <v>0.233</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.267</v>
+        <v>0.256</v>
       </c>
       <c r="I7" t="n">
-        <v>0.288</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -993,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1039,49 +1039,49 @@
         <v>22</v>
       </c>
       <c r="B8" t="n">
-        <v>0.105</v>
+        <v>0.273</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.251</v>
       </c>
       <c r="G8" t="n">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.231</v>
+        <v>0.282</v>
       </c>
       <c r="I8" t="n">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.265</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.263</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.377</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>273.1239860866452</v>
+        <v>1000</v>
       </c>
       <c r="T8" t="n">
-        <v>9.115731497151211</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2799733672017848</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0.01737166564186375</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1118,49 +1118,49 @@
         <v>23</v>
       </c>
       <c r="B9" t="n">
-        <v>0.092</v>
+        <v>0.279</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.187</v>
       </c>
       <c r="F9" t="n">
-        <v>0.121</v>
+        <v>0.25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.098</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.094</v>
+        <v>0.284</v>
       </c>
       <c r="I9" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.107</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.328</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.672</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1171,22 +1171,22 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>212.2759500244201</v>
+        <v>1000</v>
       </c>
       <c r="T9" t="n">
-        <v>6.783976215978708</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2116166011010232</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01356005989918873</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="n">
-        <v>0.044</v>
+        <v>0.28</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.248</v>
       </c>
       <c r="G10" t="n">
-        <v>0.289</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.311</v>
+        <v>0.28</v>
       </c>
       <c r="I10" t="n">
-        <v>0.356</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1230,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1276,25 +1276,25 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>0.31</v>
+        <v>0.276</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="G11" t="n">
-        <v>0.198</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.347</v>
+        <v>0.287</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1306,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1355,28 +1355,28 @@
         <v>26</v>
       </c>
       <c r="B12" t="n">
-        <v>0.21</v>
+        <v>0.284</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.248</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.263</v>
       </c>
       <c r="G12" t="n">
-        <v>0.136</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.151</v>
+        <v>0.263</v>
       </c>
       <c r="I12" t="n">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>273.9284057080585</v>
+        <v>1000</v>
       </c>
       <c r="T12" t="n">
-        <v>5.928674158866222</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3560401639506754</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06675855699036169</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1434,25 +1434,25 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.146</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.179</v>
       </c>
       <c r="G13" t="n">
-        <v>0.164</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.139</v>
+        <v>0.332</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1467,16 +1467,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1487,22 +1487,22 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>293.667056278445</v>
+        <v>1000</v>
       </c>
       <c r="T13" t="n">
-        <v>13.2095249559183</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3431760466130981</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0.06544715075209262</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1513,25 +1513,25 @@
         <v>28</v>
       </c>
       <c r="B14" t="n">
-        <v>0.217</v>
+        <v>0.274</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.254</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.196</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.251</v>
       </c>
       <c r="G14" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.31</v>
+        <v>0.279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1546,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>288.2948988964133</v>
+        <v>1000</v>
       </c>
       <c r="T14" t="n">
-        <v>7.330871424115795</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3221037959045356</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>0.0515573181141819</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>0.297</v>
+        <v>0.276</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1601,16 +1601,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.196</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="G15" t="n">
-        <v>0.228</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.475</v>
+        <v>0.284</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1625,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>252.8253558187475</v>
+        <v>1000</v>
       </c>
       <c r="T15" t="n">
-        <v>18.28621013258977</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.325074264952982</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03900543421412103</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1671,25 +1671,25 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>0.004</v>
+        <v>0.273</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.446</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.194</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.251</v>
       </c>
       <c r="G16" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.339</v>
+        <v>0.282</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1704,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="n">
-        <v>0.275</v>
+        <v>0.291</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1759,16 +1759,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.256</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.469</v>
+        <v>0.249</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1780,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.549</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.451</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
